--- a/excelFile/sampleForImportCompleteCourses.xlsx
+++ b/excelFile/sampleForImportCompleteCourses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>studentSapId</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>courseName</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -79,7 +76,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -105,11 +102,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="B2">
